--- a/datasets/Brasileirao/match_history/teams/joinville.xlsx
+++ b/datasets/Brasileirao/match_history/teams/joinville.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2015-05-09</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>42133</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -570,12 +582,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>3092</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04541104143908218</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2015-05-17</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>42141</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -626,12 +642,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>3084</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04577578680675899</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2015-05-23</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>42147</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,12 +702,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>3078</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.04605126714216527</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2015-05-30</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>42154</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -738,12 +762,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>3071</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.04637475690541633</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2015-06-03</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>42158</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -794,12 +822,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>3067</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04656062742625237</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2015-06-06</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>42161</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -850,12 +882,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>3064</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04670051904103461</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2015-06-13</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>42168</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,12 +942,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>3057</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04702856951142992</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2015-06-21</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>42176</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -962,12 +1002,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>3049</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.04740630700288939</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2015-06-28</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>42183</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1018,12 +1062,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>3042</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04773931532124098</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015-07-01</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>42186</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1074,12 +1122,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>3039</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.04788274830911178</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2015-07-04</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>42189</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1130,12 +1182,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>3036</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.04802661224204059</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2015-07-08</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>42193</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1186,12 +1242,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>3032</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04821910341670324</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2015-07-12</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>42197</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1242,12 +1302,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>3028</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04841236609804924</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1298,12 +1362,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2015-07-26</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>42211</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1354,12 +1422,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>3014</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.04909490585359783</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1410,12 +1482,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2015-08-09</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>42225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1466,12 +1542,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04978706836786394</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2015-08-13</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>42229</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1522,12 +1602,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>2996</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.04998661546947589</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2015-08-16</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>42232</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1578,12 +1662,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>2993</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.05013680048076252</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2015-08-23</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>42239</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1634,12 +1722,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>2986</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.05048898930691617</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2015-08-30</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>42246</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1690,12 +1782,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>2979</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.05084365210364792</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2015-09-02</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>42249</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1746,12 +1842,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>2976</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.05099641208536147</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2015-09-05</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>42252</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1802,12 +1902,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>2973</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.05114963103512801</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2015-09-10</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>42257</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1858,12 +1962,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>2968</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.05140601962764225</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2015-09-13</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>42260</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1914,12 +2022,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>2965</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0515604692451142</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1970,12 +2082,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2015-09-20</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>42267</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2026,12 +2142,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>2958</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.05192265871403207</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2015-09-27</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>42274</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2082,12 +2202,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>2951</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.05228739240361583</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2015-10-04</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>42281</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2138,12 +2262,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>2944</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.05265468818588921</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2194,12 +2322,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2015-10-17</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>42294</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2250,12 +2382,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>2931</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.05334366779667368</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2015-10-24</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>42301</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2306,12 +2442,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>2924</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.05371838344593517</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2015-10-31</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>42308</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2362,12 +2502,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>2917</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.05409573130673365</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2015-11-08</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>42316</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2418,12 +2562,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>2909</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.05453023284600553</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2015-11-18</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>42326</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2474,12 +2622,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>2899</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.05507827079724649</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2530,12 +2682,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2015-11-29</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>42337</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2586,12 +2742,16 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>2888</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.05568747626326995</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2642,6 +2802,12 @@
           <t>joinville</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
